--- a/2015-2016/clases/informatica_basica/a/exposicion/exposicion_tics.xlsx
+++ b/2015-2016/clases/informatica_basica/a/exposicion/exposicion_tics.xlsx
@@ -132,9 +132,6 @@
     <t>Orden Metodologico(5)</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>Trabajo en grupo(20)</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Presentacion(10)</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -182,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -371,26 +371,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -423,7 +408,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,22 +760,22 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="K4" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -814,14 +798,14 @@
         <v>12</v>
       </c>
       <c r="I5" s="13">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J5" s="14">
         <v>4</v>
       </c>
       <c r="K5" s="15">
         <f>SUM(F5:J5)</f>
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -844,14 +828,14 @@
         <v>20</v>
       </c>
       <c r="I6" s="13">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J6" s="14">
         <v>5</v>
       </c>
       <c r="K6" s="15">
         <f>SUM(F6:J6)</f>
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -862,12 +846,25 @@
       <c r="E7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
+      <c r="F7" s="13">
+        <v>10</v>
+      </c>
+      <c r="G7" s="13">
+        <v>5</v>
+      </c>
+      <c r="H7" s="13">
+        <v>20</v>
+      </c>
+      <c r="I7" s="13">
+        <v>53</v>
+      </c>
+      <c r="J7" s="14">
+        <v>4</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" ref="K7:K10" si="0">SUM(F7:J7)</f>
+        <v>92</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -879,12 +876,25 @@
       <c r="E8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
+      <c r="F8" s="13">
+        <v>9</v>
+      </c>
+      <c r="G8" s="13">
+        <v>5</v>
+      </c>
+      <c r="H8" s="13">
+        <v>20</v>
+      </c>
+      <c r="I8" s="13">
+        <v>51</v>
+      </c>
+      <c r="J8" s="14">
+        <v>5</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -896,12 +906,25 @@
       <c r="E9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
+      <c r="F9" s="13">
+        <v>10</v>
+      </c>
+      <c r="G9" s="13">
+        <v>5</v>
+      </c>
+      <c r="H9" s="13">
+        <v>20</v>
+      </c>
+      <c r="I9" s="13">
+        <v>59</v>
+      </c>
+      <c r="J9" s="14">
+        <v>5</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -913,12 +936,25 @@
       <c r="E10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="F10" s="16">
+        <v>7</v>
+      </c>
+      <c r="G10" s="16">
+        <v>5</v>
+      </c>
+      <c r="H10" s="16">
+        <v>20</v>
+      </c>
+      <c r="I10" s="16">
+        <v>52</v>
+      </c>
+      <c r="J10" s="17">
+        <v>5</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">

--- a/2015-2016/clases/informatica_basica/a/exposicion/exposicion_tics.xlsx
+++ b/2015-2016/clases/informatica_basica/a/exposicion/exposicion_tics.xlsx
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G5" s="13">
         <v>5</v>
@@ -805,7 +805,7 @@
       </c>
       <c r="K5" s="15">
         <f>SUM(F5:J5)</f>
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">

--- a/2015-2016/clases/informatica_basica/a/exposicion/exposicion_tics.xlsx
+++ b/2015-2016/clases/informatica_basica/a/exposicion/exposicion_tics.xlsx
@@ -330,7 +330,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -397,10 +397,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -422,8 +418,8 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -431,11 +427,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.1457489878542"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.2793522267206"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.5708502024291"/>
+    <col collapsed="false" hidden="true" max="10" min="6" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.1417004048583"/>
   </cols>
@@ -700,10 +692,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/2015-2016/clases/informatica_basica/a/exposicion/exposicion_tics.xlsx
+++ b/2015-2016/clases/informatica_basica/a/exposicion/exposicion_tics.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -154,11 +153,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -167,22 +163,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -206,233 +187,544 @@
     </fill>
   </fills>
   <borders count="14">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="true" max="10" min="6" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.1417004048583"/>
+    <col min="1" max="1" width="30.42578125"/>
+    <col min="2" max="2" width="30.140625"/>
+    <col min="6" max="10" width="0" hidden="1"/>
+    <col min="11" max="11" width="19.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -448,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -456,7 +748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -483,7 +775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -493,27 +785,27 @@
       <c r="E5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="10">
         <v>10</v>
       </c>
-      <c r="G5" s="10" t="n">
+      <c r="G5" s="10">
         <v>5</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="10">
         <v>12</v>
       </c>
-      <c r="I5" s="10" t="n">
+      <c r="I5" s="10">
         <v>54</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="J5" s="11">
         <v>4</v>
       </c>
-      <c r="K5" s="12" t="n">
-        <f aca="false">SUM(F5:J5)</f>
+      <c r="K5" s="12">
+        <f t="shared" ref="K5:K10" si="0">SUM(F5:J5)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -523,27 +815,27 @@
       <c r="E6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="10" t="n">
+      <c r="F6" s="10">
         <v>8</v>
       </c>
-      <c r="G6" s="10" t="n">
+      <c r="G6" s="10">
         <v>5</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="10">
         <v>20</v>
       </c>
-      <c r="I6" s="10" t="n">
+      <c r="I6" s="10">
         <v>54</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="J6" s="11">
         <v>5</v>
       </c>
-      <c r="K6" s="12" t="n">
-        <f aca="false">SUM(F6:J6)</f>
+      <c r="K6" s="12">
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
@@ -551,27 +843,27 @@
       <c r="E7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="10">
         <v>10</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="10">
         <v>5</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="10">
         <v>20</v>
       </c>
-      <c r="I7" s="10" t="n">
+      <c r="I7" s="10">
         <v>53</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="11">
         <v>4</v>
       </c>
-      <c r="K7" s="12" t="n">
-        <f aca="false">SUM(F7:J7)</f>
+      <c r="K7" s="12">
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -581,27 +873,27 @@
       <c r="E8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="10">
         <v>9</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="10">
         <v>5</v>
       </c>
-      <c r="H8" s="10" t="n">
+      <c r="H8" s="10">
         <v>20</v>
       </c>
-      <c r="I8" s="10" t="n">
+      <c r="I8" s="10">
         <v>51</v>
       </c>
-      <c r="J8" s="11" t="n">
+      <c r="J8" s="11">
         <v>5</v>
       </c>
-      <c r="K8" s="12" t="n">
-        <f aca="false">SUM(F8:J8)</f>
+      <c r="K8" s="12">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -611,27 +903,27 @@
       <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="10">
         <v>10</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="10">
         <v>5</v>
       </c>
-      <c r="H9" s="10" t="n">
+      <c r="H9" s="10">
         <v>20</v>
       </c>
-      <c r="I9" s="10" t="n">
+      <c r="I9" s="10">
         <v>59</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="11">
         <v>5</v>
       </c>
-      <c r="K9" s="12" t="n">
-        <f aca="false">SUM(F9:J9)</f>
+      <c r="K9" s="12">
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -641,27 +933,27 @@
       <c r="E10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="15" t="n">
+      <c r="F10" s="15">
         <v>7</v>
       </c>
-      <c r="G10" s="15" t="n">
+      <c r="G10" s="15">
         <v>5</v>
       </c>
-      <c r="H10" s="15" t="n">
+      <c r="H10" s="15">
         <v>20</v>
       </c>
-      <c r="I10" s="15" t="n">
+      <c r="I10" s="15">
         <v>52</v>
       </c>
-      <c r="J10" s="16" t="n">
+      <c r="J10" s="16">
         <v>5</v>
       </c>
-      <c r="K10" s="12" t="n">
-        <f aca="false">SUM(F10:J10)</f>
+      <c r="K10" s="12">
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -669,7 +961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -677,7 +969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -685,13 +977,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -699,7 +991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -707,7 +999,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
@@ -715,7 +1007,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -723,7 +1015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
@@ -731,7 +1023,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>42</v>
       </c>
@@ -740,64 +1032,33 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>